--- a/shortcuts.xlsx
+++ b/shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avidan.moshe\Desktop\Appleseeds\Bootcamp\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0D0CCE-EAE8-41E0-AD43-95C1C48DFBC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE80C4C-D47D-4A39-8933-1296A8C72746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>shift+ alt + up/down</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>.box*3</t>
+  </si>
+  <si>
+    <t>&lt;class=box&gt;*3</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,6 +460,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shortcuts.xlsx
+++ b/shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avidan.moshe\Desktop\Appleseeds\Bootcamp\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE80C4C-D47D-4A39-8933-1296A8C72746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68594BF8-AEE6-4F52-8636-F3F1F8471D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>shift+ alt + up/down</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>&lt;class=box&gt;*3</t>
+  </si>
+  <si>
+    <t>alt+down</t>
+  </si>
+  <si>
+    <t>להחליף שורות</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,6 +474,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
